--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -575,7 +575,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>44439</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44979</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>44489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44454</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>45842.47034722222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45324</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45664.60489583333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>45947.50652777778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>45561</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45952.63803240741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44575</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44785</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45254</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>45791.4415625</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44785</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45575.39890046296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44802</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>45915.59765046297</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45924.5352662037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>45832.47028935186</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>45943</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>44302.41612268519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45874.5900462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>45874.58605324074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>45044</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44951</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>46054.85332175926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>45105</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45703.67907407408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>44378.55797453703</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44279</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44784</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44740</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44260</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44466</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45799.45077546296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44575.43100694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>45684</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>45574.59858796297</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45167</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>45243</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45007</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>45719.50027777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44915</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>45856.41157407407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>45868.60506944444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44991.50229166666</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45966.82825231482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45882</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>46049.69579861111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44517.4756712963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>45275</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>44931</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44246</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45775.89171296296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45544.57532407407</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44629</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44823</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44460.55954861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44285</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44497.4675462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44264</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44505.47354166667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44327</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44273</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44684</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44312</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44456</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44435</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44539.35644675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44457</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44407.35048611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44489</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44382</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44498</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44498</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44823</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44525.32100694445</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44273.86541666667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44531</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44364.74199074074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44517.67465277778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44602</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44623.42868055555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44417</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44858.57224537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44264</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44522</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44823.44712962963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44818</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44852.45520833333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44858.5893287037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44858.68984953704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44858.69229166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44243.63636574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44615</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44432</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44302</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44271.41609953704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44287</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44348.69079861111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44586</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44447</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44267</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44454</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44241</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44357</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44552.58133101852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44377.95908564814</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44301.35189814815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44574</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44244</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44620</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44351</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44302</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44341.4290625</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44461.44216435185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44312.38436342592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44455.55739583333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44784</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44433.50366898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44369</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44654.98487268519</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44326.60537037037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44855.31458333333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44858.58140046296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44437.35085648148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44732</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44386</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44810</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44385</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44454</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44448</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44238</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44461.4503587963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44326.34189814814</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44858.57855324074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44385</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45411.45290509259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44477.44094907407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44595</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44970</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45617.52459490741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44988</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>45090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>45090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>45090.42700231481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44895.64876157408</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>45161.57517361111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>45097</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>45735.29974537037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>45205.48995370371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45272</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>45034.48248842593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44438</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45307.70986111111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45623.69091435185</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44502</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>45618.44626157408</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>45573.74909722222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45741.65971064815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45099.63752314815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44993.50293981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44993.63946759259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>45195</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>45349.67702546297</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44855.62880787037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45233.45891203704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44861</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44924</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45153.41537037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44991.5237037037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45173.64986111111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45173.65681712963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45488.65181712963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45688.48016203703</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44994.74642361111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44712.36024305555</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>45219.37208333334</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>45720.50233796296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44280.38127314814</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>45250.63819444444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>44993.51064814815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45630.3630787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>45264</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45219.3707175926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>45189</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>45796.42703703704</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45272</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45028</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45400.36533564814</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45239</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>45804.49474537037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45771</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44782.6562037037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>45805.66190972222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44238</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>45058.34835648148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>45636.32344907407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45783.42328703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45741.47291666667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44405</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45720.54586805555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45719.48662037037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45719.50247685185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45796.42775462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45812.4690162037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45182.6869212963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45890.66949074074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45890</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45163</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45110.53196759259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>45104</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>45104.61489583334</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>45104</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>45341.6575</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44529</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>45335</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>45903</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>45820.41298611111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>45820.41796296297</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45901.85744212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45180.38313657408</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44971</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>45061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>45825.53065972222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>45086.58806712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>45824.4099537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>45840.52256944445</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>45824.33850694444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44617</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44617</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45910.7499537037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44984.48538194445</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44984.51159722222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45912.70927083334</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45912.7087962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45915.60172453704</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>45915.62736111111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>45915.59504629629</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>45007</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>45007.36232638889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>45007.36420138889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>45205.49322916667</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>45917.5968287037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>45917.65667824074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>45180.66054398148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>45096.42900462963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>45923.42653935185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>45170</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>45923.38517361111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>45923.75641203704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45924.53162037037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45212</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>45091</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>45929.64453703703</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44984</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44645.55082175926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44973.35048611111</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>45930.62087962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>45838.3153125</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>45838.42543981481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>45838.30082175926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>45838.30962962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>45722.56913194444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>45932.4553125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>45540.46302083333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44816.42498842593</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>45460.55929398148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44914.32637731481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44994</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44994</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45544</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45939.38967592592</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>45173</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>45104.62357638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>45939.39587962963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>45113</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>45091</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45167</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>45233.47571759259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>45842</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45842</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>45842.45819444444</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>45252.61453703704</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>45544.57149305556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>45406</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>45947.56736111111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45947.56983796296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45564.47452546296</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45267.64923611111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45947.56894675926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45947.48684027778</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45849.43452546297</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45946.69854166666</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44502</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>45104.61077546296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>45198</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>45856.43569444444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>45567</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45243</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45861.37252314815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45952.44096064815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45863.39814814815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>44846.5583449074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>45952.63920138889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>45831.97577546296</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45866.74208333333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45764</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44914.45517361111</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45779.64450231481</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45952.5759837963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>44522</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         <v>45548.55480324074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>45070</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44909.39930555555</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>45215.52277777778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         <v>45246</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>45874.58261574074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>45286.66233796296</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>45874.43913194445</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>45958.35711805556</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44418.68163194445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44796</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44581.86262731482</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45268.50543981481</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>45961.3479050926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>45229.71185185185</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>45722.85125</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>45961.57341435185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45595.70145833334</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>45785.36744212963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>45628.58701388889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>45252</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>45233.461875</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>45966.71322916666</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>45883.50762731482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44566</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44375</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>45418.46353009259</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>45716.26175925926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>45345.38601851852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>45972.31782407407</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>45706.35223379629</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>45028.61766203704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>45713.33792824074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>45707.76028935185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>45707.76736111111</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>45930</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>45772</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>45772</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44497</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>45618.44939814815</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>45695.66608796296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44277</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>45688.49143518518</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>45006.5191087963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>45789.81270833333</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>45492.44469907408</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44872.77071759259</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44810</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45978.7303587963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45229</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44971.53328703704</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45093</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>44407.34855324074</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>46026.66100694444</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45982.30153935185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45153</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45771.4483912037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>44915.61998842593</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>44914.51458333333</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>44895.65763888889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45551.46702546296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45327.50098379629</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>44939.49839120371</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45246.60998842592</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45246.61422453704</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>44973.36293981481</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45378.46670138889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45190.33980324074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45175</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45173.50910879629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44236</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>44831</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45306</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45992.88173611111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>46036.46270833333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45091</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45994.71613425926</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45856.43655092592</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>46036.59960648148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>44629</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45741.64989583333</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>46037.67871527778</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>45624.46452546296</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44862</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>44979</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>45574.62284722222</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>44539.50920138889</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>45154.50664351852</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>45182</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>44988.67706018518</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
         <v>45624.47252314815</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>45266.65703703704</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>45625</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>45629.79351851852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>45646</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>46003.58643518519</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>45188.38238425926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44803.59166666667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>45402</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>45680.68400462963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>46048.39497685185</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45764.43362268519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>46051.3796875</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44966.42866898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44595</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>46008.5600462963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>46009.49219907408</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>46008.56133101852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>46049.89885416667</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>46052.37725694444</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>46010</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44855</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45685</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45575.41082175926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>46013</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45044</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44955.57755787037</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44939</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>46054.85021990741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>46054.86001157408</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>46055.58444444444</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>45470.70572916666</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>45125.51887731482</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>45338</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45460.56112268518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45387.4628125</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45387.46427083333</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45476.32041666667</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44351</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44882.86710648148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>45624.68168981482</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>45534.33277777778</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44959.58509259259</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>44544.66945601852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>44949</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>44847.61641203704</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44543.6294212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45202</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45050</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45308.36451388889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44993</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45558.64021990741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44782.66065972222</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45628.6009837963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45363.41396990741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31250,7 +31250,7 @@
         <v>45075</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31307,7 +31307,7 @@
         <v>45083</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31364,7 +31364,7 @@
         <v>45114</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31421,7 +31421,7 @@
         <v>44236</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31478,7 +31478,7 @@
         <v>44236</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31535,7 +31535,7 @@
         <v>45173.65185185185</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31592,7 +31592,7 @@
         <v>45387.46362268519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31649,7 +31649,7 @@
         <v>45387.46494212963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>44564.33684027778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>45149.36645833333</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>45149.36741898148</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>45141</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>44971.65065972223</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31991,7 +31991,7 @@
         <v>45205.50341435185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>45524.55950231481</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>45099.64581018518</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>45212</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>44679.61922453704</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>45607</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32333,7 +32333,7 @@
         <v>45755.82037037037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         <v>45233.44423611111</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45540.46863425926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32504,7 +32504,7 @@
         <v>45719.50435185185</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>45169.40732638889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>44482</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>45246</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45118</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>44656.3625925926</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         <v>44690.35951388889</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44819</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>44952.55995370371</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45323.39799768518</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45092.66958333334</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45086</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45156.64706018518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45314</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45771</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45034.50958333333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45254.37960648148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45174.29445601852</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>45363.43923611111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>44818.36990740741</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45531.56496527778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>45324.24875</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33820,7 +33820,7 @@
         <v>45454.57378472222</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45703.68050925926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>44271</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33991,7 +33991,7 @@
         <v>44271</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34048,7 +34048,7 @@
         <v>44564.34321759259</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
         <v>45209.56659722222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>45209.57653935185</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45684</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>45091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>45771</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>45260</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>44342.63006944444</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>44978.45912037037</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>45273.86098379629</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>45758.43954861111</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34680,7 +34680,7 @@
         <v>45334.4872800926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34737,7 +34737,7 @@
         <v>45623.68888888889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34794,7 +34794,7 @@
         <v>45189</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34851,7 +34851,7 @@
         <v>45356.37644675926</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
         <v>44931.35797453704</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         <v>45027</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35022,7 +35022,7 @@
         <v>45090</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35079,7 +35079,7 @@
         <v>44413</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35136,7 +35136,7 @@
         <v>45067</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>44823.49798611111</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44823.51177083333</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44732.58428240741</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>44963</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>44963.84150462963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45341.65902777778</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>45336</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35592,7 +35592,7 @@
         <v>45618.44755787037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35649,7 +35649,7 @@
         <v>45540.47875</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35706,7 +35706,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35768,7 +35768,7 @@
         <v>45624.46776620371</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35830,7 +35830,7 @@
         <v>45156</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         <v>44336</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>44824.33912037037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36001,7 +36001,7 @@
         <v>45338.63932870371</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>45001</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>44658.9643287037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45719.49442129629</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36234,7 +36234,7 @@
         <v>45719.49711805556</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36296,7 +36296,7 @@
         <v>45727.44655092592</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45114</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45755.44684027778</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45582.40756944445</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36524,7 +36524,7 @@
         <v>45236.51583333333</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>45229.44927083333</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36695,7 +36695,7 @@
         <v>45119</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36752,7 +36752,7 @@
         <v>44858</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36809,7 +36809,7 @@
         <v>45181.53854166667</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>45775.89869212963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>45558.55011574074</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36985,7 +36985,7 @@
         <v>45439.49431712963</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37042,7 +37042,7 @@
         <v>45443.49804398148</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         <v>45551.45412037037</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37156,7 +37156,7 @@
         <v>45246</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37213,7 +37213,7 @@
         <v>45782.59019675926</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37275,7 +37275,7 @@
         <v>45782.56037037037</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>45782.59994212963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45785.59967592593</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45664.58763888889</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45664.40896990741</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45786.35510416667</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45566.42055555555</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45454.56966435185</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45730.39450231481</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45363.44701388889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45791.44459490741</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45792.5966550926</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         <v>45792.58431712963</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>45792.56350694445</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38113,7 +38113,7 @@
         <v>45797.43725694445</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -575,7 +575,7 @@
         <v>44237</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>44245</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>44439</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>44979</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -979,7 +979,7 @@
         <v>44489</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1075,7 +1075,7 @@
         <v>44476</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1179,7 +1179,7 @@
         <v>44454</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>45842.47034722222</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1373,7 +1373,7 @@
         <v>45324</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1464,7 +1464,7 @@
         <v>45664.60489583333</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>45947.50652777778</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         <v>45561</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>45952.63803240741</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>44951</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
         <v>44876</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>44575</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44785</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2315,7 +2315,7 @@
         <v>45118</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2402,7 +2402,7 @@
         <v>45254</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>44489</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2580,7 +2580,7 @@
         <v>44853</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>45791.4415625</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>44785</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45575.39890046296</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>44802</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>45915.59765046297</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45924.5352662037</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>45832.47028935186</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3292,7 +3292,7 @@
         <v>45943</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3386,7 +3386,7 @@
         <v>44302.41612268519</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3472,7 +3472,7 @@
         <v>45874.5900462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         <v>45874.58605324074</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>45044</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3734,7 +3734,7 @@
         <v>44951</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3820,7 +3820,7 @@
         <v>45114</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         <v>46054.85332175926</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         <v>45105</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4082,7 +4082,7 @@
         <v>45703.67907407408</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>44378.55797453703</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4253,7 +4253,7 @@
         <v>44489</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4342,7 +4342,7 @@
         <v>44279</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4427,7 +4427,7 @@
         <v>44784</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>44740</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4597,7 +4597,7 @@
         <v>44260</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4682,7 +4682,7 @@
         <v>44466</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4771,7 +4771,7 @@
         <v>45799.45077546296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>44575.43100694445</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         <v>45684</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>45574.59858796297</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>45475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5205,7 +5205,7 @@
         <v>45167</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5290,7 +5290,7 @@
         <v>45243</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5375,7 +5375,7 @@
         <v>45007</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>45719.50027777778</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         <v>44915</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5635,7 +5635,7 @@
         <v>45856.41157407407</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>45868.60506944444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5810,7 +5810,7 @@
         <v>44991.50229166666</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5895,7 +5895,7 @@
         <v>45966.82825231482</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45882</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>44482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>46049.69579861111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45117</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6328,7 +6328,7 @@
         <v>44517.4756712963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6417,7 +6417,7 @@
         <v>45275</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6507,7 +6507,7 @@
         <v>44931</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6592,7 +6592,7 @@
         <v>45007</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6681,7 +6681,7 @@
         <v>44246</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6770,7 +6770,7 @@
         <v>45775.89171296296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6855,7 +6855,7 @@
         <v>45544.57532407407</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6944,7 +6944,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7001,7 +7001,7 @@
         <v>44629</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>44421</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44823</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44460.55954861111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44285</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44497.4675462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7343,7 +7343,7 @@
         <v>44264</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7400,7 +7400,7 @@
         <v>44505.47354166667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7457,7 +7457,7 @@
         <v>44327</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7514,7 +7514,7 @@
         <v>44475</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>44852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7633,7 +7633,7 @@
         <v>44273</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7690,7 +7690,7 @@
         <v>44684</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7747,7 +7747,7 @@
         <v>44312</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7804,7 +7804,7 @@
         <v>44456</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7861,7 +7861,7 @@
         <v>44435</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7918,7 +7918,7 @@
         <v>44539.35644675926</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7975,7 +7975,7 @@
         <v>44457</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -8032,7 +8032,7 @@
         <v>44407.35048611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
         <v>44489</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8146,7 +8146,7 @@
         <v>44382</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8203,7 +8203,7 @@
         <v>44498</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8260,7 +8260,7 @@
         <v>44498</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8317,7 +8317,7 @@
         <v>44823</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8374,7 +8374,7 @@
         <v>44525.32100694445</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8431,7 +8431,7 @@
         <v>44790</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8488,7 +8488,7 @@
         <v>44273.86541666667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8545,7 +8545,7 @@
         <v>44531</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8602,7 +8602,7 @@
         <v>44364.74199074074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8659,7 +8659,7 @@
         <v>44517.67465277778</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8716,7 +8716,7 @@
         <v>44602</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8773,7 +8773,7 @@
         <v>44623.42868055555</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8830,7 +8830,7 @@
         <v>44417</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8887,7 +8887,7 @@
         <v>44858.57224537037</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8944,7 +8944,7 @@
         <v>44419</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -9001,7 +9001,7 @@
         <v>44264</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -9058,7 +9058,7 @@
         <v>44522</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9115,7 +9115,7 @@
         <v>44823.44712962963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9172,7 +9172,7 @@
         <v>44818</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9229,7 +9229,7 @@
         <v>44852.45520833333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9286,7 +9286,7 @@
         <v>44858.5893287037</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9343,7 +9343,7 @@
         <v>44858.68984953704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>44858.69229166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9457,7 +9457,7 @@
         <v>44243.63636574074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9514,7 +9514,7 @@
         <v>44615</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9571,7 +9571,7 @@
         <v>44432</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         <v>44302</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9685,7 +9685,7 @@
         <v>44271.41609953704</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9742,7 +9742,7 @@
         <v>44287</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9799,7 +9799,7 @@
         <v>44348.69079861111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9856,7 +9856,7 @@
         <v>44586</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9913,7 +9913,7 @@
         <v>44447</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9970,7 +9970,7 @@
         <v>44267</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>44454</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10084,7 +10084,7 @@
         <v>44502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10141,7 +10141,7 @@
         <v>44241</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10198,7 +10198,7 @@
         <v>44357</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10255,7 +10255,7 @@
         <v>44552.58133101852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10312,7 +10312,7 @@
         <v>44482</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10369,7 +10369,7 @@
         <v>44377.95908564814</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10426,7 +10426,7 @@
         <v>44301.35189814815</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>44574</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         <v>44244</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10597,7 +10597,7 @@
         <v>44620</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10654,7 +10654,7 @@
         <v>44351</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10711,7 +10711,7 @@
         <v>44302</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10768,7 +10768,7 @@
         <v>44341.4290625</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
         <v>44461.44216435185</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10882,7 +10882,7 @@
         <v>44625</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10939,7 +10939,7 @@
         <v>44312.38436342592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10996,7 +10996,7 @@
         <v>44455.55739583333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11053,7 +11053,7 @@
         <v>44784</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11110,7 +11110,7 @@
         <v>44433.50366898148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11167,7 +11167,7 @@
         <v>44369</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11224,7 +11224,7 @@
         <v>44654.98487268519</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11281,7 +11281,7 @@
         <v>44326.60537037037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11338,7 +11338,7 @@
         <v>44855.31458333333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44858.58140046296</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11452,7 +11452,7 @@
         <v>44437.35085648148</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11509,7 +11509,7 @@
         <v>44732</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11566,7 +11566,7 @@
         <v>44386</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11623,7 +11623,7 @@
         <v>44810</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11680,7 +11680,7 @@
         <v>44385</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11737,7 +11737,7 @@
         <v>44454</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11794,7 +11794,7 @@
         <v>44448</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11851,7 +11851,7 @@
         <v>44238</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11908,7 +11908,7 @@
         <v>44461.4503587963</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11965,7 +11965,7 @@
         <v>44326.34189814814</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -12022,7 +12022,7 @@
         <v>44858.57855324074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12079,7 +12079,7 @@
         <v>44385</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12136,7 +12136,7 @@
         <v>44511</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>45411.45290509259</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44924</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44477.44094907407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12364,7 +12364,7 @@
         <v>44595</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12421,7 +12421,7 @@
         <v>44970</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12478,7 +12478,7 @@
         <v>45617.52459490741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12535,7 +12535,7 @@
         <v>44988</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12592,7 +12592,7 @@
         <v>45090</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>45090</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>45090.42700231481</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12763,7 +12763,7 @@
         <v>44895.64876157408</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12820,7 +12820,7 @@
         <v>45161.57517361111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12877,7 +12877,7 @@
         <v>45097</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>45735.29974537037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12991,7 +12991,7 @@
         <v>45205.48995370371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         <v>45272</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13105,7 +13105,7 @@
         <v>45034.48248842593</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13162,7 +13162,7 @@
         <v>44438</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13219,7 +13219,7 @@
         <v>45307.70986111111</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13276,7 +13276,7 @@
         <v>45623.69091435185</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
         <v>44502</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13390,7 +13390,7 @@
         <v>45618.44626157408</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13447,7 +13447,7 @@
         <v>44846</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13504,7 +13504,7 @@
         <v>45573.74909722222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13561,7 +13561,7 @@
         <v>45741.65971064815</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13618,7 +13618,7 @@
         <v>45099.63752314815</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13675,7 +13675,7 @@
         <v>44993.50293981482</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13732,7 +13732,7 @@
         <v>44993.63946759259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13789,7 +13789,7 @@
         <v>45195</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13846,7 +13846,7 @@
         <v>45349.67702546297</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13903,7 +13903,7 @@
         <v>44855.62880787037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         <v>45233.45891203704</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14017,7 +14017,7 @@
         <v>44861</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44924</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>45153.41537037037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44991.5237037037</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14245,7 +14245,7 @@
         <v>44864</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14302,7 +14302,7 @@
         <v>45173.64986111111</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14359,7 +14359,7 @@
         <v>45173.65681712963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14416,7 +14416,7 @@
         <v>45488.65181712963</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14473,7 +14473,7 @@
         <v>45688.48016203703</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14530,7 +14530,7 @@
         <v>44994.74642361111</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14587,7 +14587,7 @@
         <v>44712.36024305555</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14644,7 +14644,7 @@
         <v>45219.37208333334</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14701,7 +14701,7 @@
         <v>45720.50233796296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14758,7 +14758,7 @@
         <v>44280.38127314814</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14815,7 +14815,7 @@
         <v>45250.63819444444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14872,7 +14872,7 @@
         <v>44993.51064814815</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14929,7 +14929,7 @@
         <v>45630.3630787037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14986,7 +14986,7 @@
         <v>45264</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15063,7 +15063,7 @@
         <v>45219.3707175926</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15120,7 +15120,7 @@
         <v>45189</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15177,7 +15177,7 @@
         <v>45796.42703703704</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15234,7 +15234,7 @@
         <v>45272</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15291,7 +15291,7 @@
         <v>45028</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15348,7 +15348,7 @@
         <v>45400.36533564814</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15405,7 +15405,7 @@
         <v>45239</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15467,7 +15467,7 @@
         <v>45804.49474537037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15524,7 +15524,7 @@
         <v>45771</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15581,7 +15581,7 @@
         <v>44782.6562037037</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15638,7 +15638,7 @@
         <v>45805.66190972222</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15695,7 +15695,7 @@
         <v>44238</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15752,7 +15752,7 @@
         <v>45058.34835648148</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15809,7 +15809,7 @@
         <v>45636.32344907407</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15866,7 +15866,7 @@
         <v>45783.42328703704</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15923,7 +15923,7 @@
         <v>45741.47291666667</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15980,7 +15980,7 @@
         <v>44405</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16037,7 +16037,7 @@
         <v>45720.54586805555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16094,7 +16094,7 @@
         <v>45719.48662037037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16156,7 +16156,7 @@
         <v>45719.50247685185</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16218,7 +16218,7 @@
         <v>45796.42775462963</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16275,7 +16275,7 @@
         <v>45812.4690162037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>45182.6869212963</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16389,7 +16389,7 @@
         <v>45890.66949074074</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16446,7 +16446,7 @@
         <v>45890</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16503,7 +16503,7 @@
         <v>45163</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16580,7 +16580,7 @@
         <v>45110.53196759259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>45104</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16704,7 +16704,7 @@
         <v>45104.61489583334</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16761,7 +16761,7 @@
         <v>45104</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>45341.6575</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16875,7 +16875,7 @@
         <v>44529</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16932,7 +16932,7 @@
         <v>45335</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16994,7 +16994,7 @@
         <v>45903</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17051,7 +17051,7 @@
         <v>45820.41298611111</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>45820.41796296297</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17175,7 +17175,7 @@
         <v>45901.85744212963</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17232,7 +17232,7 @@
         <v>45180.38313657408</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44971</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>45061</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17403,7 +17403,7 @@
         <v>45825.53065972222</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17460,7 +17460,7 @@
         <v>45086.58806712963</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17517,7 +17517,7 @@
         <v>45824.4099537037</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>45840.52256944445</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>45824.33850694444</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44617</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>44617</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45910.7499537037</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>44984.48538194445</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17941,7 +17941,7 @@
         <v>44984.51159722222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
         <v>45912.70927083334</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18055,7 +18055,7 @@
         <v>45912.7087962963</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18112,7 +18112,7 @@
         <v>45915.60172453704</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18169,7 +18169,7 @@
         <v>45915.62736111111</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18226,7 +18226,7 @@
         <v>45915.59504629629</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18283,7 +18283,7 @@
         <v>45007</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18340,7 +18340,7 @@
         <v>45007.36232638889</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18397,7 +18397,7 @@
         <v>45007.36420138889</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18454,7 +18454,7 @@
         <v>45205.49322916667</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18511,7 +18511,7 @@
         <v>45917.5968287037</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18568,7 +18568,7 @@
         <v>45917.65667824074</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18625,7 +18625,7 @@
         <v>45180.66054398148</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18682,7 +18682,7 @@
         <v>45096.42900462963</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18739,7 +18739,7 @@
         <v>45923.42653935185</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18796,7 +18796,7 @@
         <v>45170</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18853,7 +18853,7 @@
         <v>45923.38517361111</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18910,7 +18910,7 @@
         <v>45923.75641203704</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18967,7 +18967,7 @@
         <v>45924.53162037037</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19024,7 +19024,7 @@
         <v>45212</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19081,7 +19081,7 @@
         <v>45091</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19138,7 +19138,7 @@
         <v>45929.64453703703</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19195,7 +19195,7 @@
         <v>44984</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19252,7 +19252,7 @@
         <v>44645.55082175926</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19309,7 +19309,7 @@
         <v>44973.35048611111</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19366,7 +19366,7 @@
         <v>45930.62087962963</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19423,7 +19423,7 @@
         <v>45838.3153125</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>45838.42543981481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19537,7 +19537,7 @@
         <v>45838.30082175926</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19594,7 +19594,7 @@
         <v>45838.30962962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19651,7 +19651,7 @@
         <v>44963</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19708,7 +19708,7 @@
         <v>45722.56913194444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19770,7 +19770,7 @@
         <v>45932.4553125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19827,7 +19827,7 @@
         <v>44438</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19884,7 +19884,7 @@
         <v>45540.46302083333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19941,7 +19941,7 @@
         <v>44816.42498842593</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19998,7 +19998,7 @@
         <v>45460.55929398148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20055,7 +20055,7 @@
         <v>44914.32637731481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20112,7 +20112,7 @@
         <v>44994</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44994</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45544</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20288,7 +20288,7 @@
         <v>45939.38967592592</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20345,7 +20345,7 @@
         <v>45173</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20402,7 +20402,7 @@
         <v>45104.62357638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20459,7 +20459,7 @@
         <v>45939.39587962963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20516,7 +20516,7 @@
         <v>45113</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>45091</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45167</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20687,7 +20687,7 @@
         <v>45233.47571759259</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20744,7 +20744,7 @@
         <v>45842</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20801,7 +20801,7 @@
         <v>45842</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20858,7 +20858,7 @@
         <v>45842.45819444444</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20915,7 +20915,7 @@
         <v>45252.61453703704</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20972,7 +20972,7 @@
         <v>45544.57149305556</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21029,7 +21029,7 @@
         <v>45406</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21086,7 +21086,7 @@
         <v>45947.56736111111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21143,7 +21143,7 @@
         <v>45947.56983796296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21200,7 +21200,7 @@
         <v>45564.47452546296</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21257,7 +21257,7 @@
         <v>45267.64923611111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21314,7 +21314,7 @@
         <v>45947.56894675926</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21371,7 +21371,7 @@
         <v>45947.48684027778</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21428,7 +21428,7 @@
         <v>45849.43452546297</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21485,7 +21485,7 @@
         <v>45946.69854166666</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21542,7 +21542,7 @@
         <v>44502</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21599,7 +21599,7 @@
         <v>45104.61077546296</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21656,7 +21656,7 @@
         <v>45198</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21713,7 +21713,7 @@
         <v>45856.43569444444</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21775,7 +21775,7 @@
         <v>45567</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21837,7 +21837,7 @@
         <v>45243</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21894,7 +21894,7 @@
         <v>45861.37252314815</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21951,7 +21951,7 @@
         <v>45952.44096064815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -22008,7 +22008,7 @@
         <v>45863.39814814815</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22065,7 +22065,7 @@
         <v>44846.5583449074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22122,7 +22122,7 @@
         <v>45952.63920138889</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22179,7 +22179,7 @@
         <v>45831.97577546296</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22236,7 +22236,7 @@
         <v>45866.74208333333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22293,7 +22293,7 @@
         <v>45764</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22350,7 +22350,7 @@
         <v>44914.45517361111</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22407,7 +22407,7 @@
         <v>45779.64450231481</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22464,7 +22464,7 @@
         <v>45952.5759837963</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22521,7 +22521,7 @@
         <v>44522</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22578,7 +22578,7 @@
         <v>45548.55480324074</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22635,7 +22635,7 @@
         <v>45070</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22697,7 +22697,7 @@
         <v>44909.39930555555</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22754,7 +22754,7 @@
         <v>45215.52277777778</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22811,7 +22811,7 @@
         <v>45246</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22868,7 +22868,7 @@
         <v>45874.58261574074</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22925,7 +22925,7 @@
         <v>45286.66233796296</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22982,7 +22982,7 @@
         <v>45874.43913194445</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23039,7 +23039,7 @@
         <v>45958.35711805556</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23096,7 +23096,7 @@
         <v>44418.68163194445</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23153,7 +23153,7 @@
         <v>44796</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23210,7 +23210,7 @@
         <v>44581.86262731482</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23267,7 +23267,7 @@
         <v>45268.50543981481</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23324,7 +23324,7 @@
         <v>45961.3479050926</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23381,7 +23381,7 @@
         <v>45229.71185185185</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23438,7 +23438,7 @@
         <v>45722.85125</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23495,7 +23495,7 @@
         <v>45961.57341435185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23552,7 +23552,7 @@
         <v>45595.70145833334</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>45785.36744212963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23666,7 +23666,7 @@
         <v>45628.58701388889</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23723,7 +23723,7 @@
         <v>45252</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23780,7 +23780,7 @@
         <v>45233.461875</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23837,7 +23837,7 @@
         <v>45966.71322916666</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23894,7 +23894,7 @@
         <v>45883.50762731482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23951,7 +23951,7 @@
         <v>44566</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -24008,7 +24008,7 @@
         <v>44375</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24065,7 +24065,7 @@
         <v>45418.46353009259</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24122,7 +24122,7 @@
         <v>45716.26175925926</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24179,7 +24179,7 @@
         <v>45345.38601851852</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24236,7 +24236,7 @@
         <v>45972.31782407407</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24293,7 +24293,7 @@
         <v>45706.35223379629</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24350,7 +24350,7 @@
         <v>45028.61766203704</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24407,7 +24407,7 @@
         <v>45713.33792824074</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24464,7 +24464,7 @@
         <v>45707.76028935185</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>45707.76736111111</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>45930</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24635,7 +24635,7 @@
         <v>45772</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24692,7 +24692,7 @@
         <v>45772</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24749,7 +24749,7 @@
         <v>44497</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24806,7 +24806,7 @@
         <v>45618.44939814815</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24863,7 +24863,7 @@
         <v>45695.66608796296</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24920,7 +24920,7 @@
         <v>44277</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24977,7 +24977,7 @@
         <v>45688.49143518518</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25034,7 +25034,7 @@
         <v>44529</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25091,7 +25091,7 @@
         <v>45006.5191087963</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25148,7 +25148,7 @@
         <v>45789.81270833333</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25205,7 +25205,7 @@
         <v>45492.44469907408</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25262,7 +25262,7 @@
         <v>44872.77071759259</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44810</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25376,7 +25376,7 @@
         <v>45978.7303587963</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25433,7 +25433,7 @@
         <v>45229</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25490,7 +25490,7 @@
         <v>44971.53328703704</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25547,7 +25547,7 @@
         <v>45093</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25604,7 +25604,7 @@
         <v>44407.34855324074</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25661,7 +25661,7 @@
         <v>46026.66100694444</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25718,7 +25718,7 @@
         <v>45982.30153935185</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25775,7 +25775,7 @@
         <v>45153</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25832,7 +25832,7 @@
         <v>45771.4483912037</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25889,7 +25889,7 @@
         <v>44915.61998842593</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25946,7 +25946,7 @@
         <v>44914.51458333333</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26003,7 +26003,7 @@
         <v>44895.65763888889</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26060,7 +26060,7 @@
         <v>45551.46702546296</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26117,7 +26117,7 @@
         <v>45327.50098379629</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26174,7 +26174,7 @@
         <v>44939.49839120371</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26231,7 +26231,7 @@
         <v>45069</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26288,7 +26288,7 @@
         <v>45246.60998842592</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>45246.61422453704</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26402,7 +26402,7 @@
         <v>44973.36293981481</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26459,7 +26459,7 @@
         <v>45378.46670138889</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26516,7 +26516,7 @@
         <v>45190.33980324074</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26573,7 +26573,7 @@
         <v>45175</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26630,7 +26630,7 @@
         <v>45173.50910879629</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26687,7 +26687,7 @@
         <v>44236</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26744,7 +26744,7 @@
         <v>44831</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26806,7 +26806,7 @@
         <v>45306</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26863,7 +26863,7 @@
         <v>45992.88173611111</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26920,7 +26920,7 @@
         <v>46036.46270833333</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26977,7 +26977,7 @@
         <v>45091</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27034,7 +27034,7 @@
         <v>45994.71613425926</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27091,7 +27091,7 @@
         <v>45856.43655092592</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27153,7 +27153,7 @@
         <v>46036.59960648148</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27210,7 +27210,7 @@
         <v>44629</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27267,7 +27267,7 @@
         <v>45741.64989583333</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27324,7 +27324,7 @@
         <v>46037.67871527778</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27381,7 +27381,7 @@
         <v>45624.46452546296</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27443,7 +27443,7 @@
         <v>44862</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27500,7 +27500,7 @@
         <v>44979</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27557,7 +27557,7 @@
         <v>45574.62284722222</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27619,7 +27619,7 @@
         <v>45097</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27676,7 +27676,7 @@
         <v>44539.50920138889</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27733,7 +27733,7 @@
         <v>45154.50664351852</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27790,7 +27790,7 @@
         <v>45182</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27847,7 +27847,7 @@
         <v>44909</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27904,7 +27904,7 @@
         <v>44988.67706018518</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27961,7 +27961,7 @@
         <v>45624.47252314815</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28023,7 +28023,7 @@
         <v>45266.65703703704</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28080,7 +28080,7 @@
         <v>45625</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28137,7 +28137,7 @@
         <v>45629.79351851852</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28194,7 +28194,7 @@
         <v>45646</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28251,7 +28251,7 @@
         <v>46003.58643518519</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28308,7 +28308,7 @@
         <v>45188.38238425926</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28365,7 +28365,7 @@
         <v>44803.59166666667</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28422,7 +28422,7 @@
         <v>45402</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28484,7 +28484,7 @@
         <v>45680.68400462963</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28541,7 +28541,7 @@
         <v>46048.39497685185</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28598,7 +28598,7 @@
         <v>45764.43362268519</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28655,7 +28655,7 @@
         <v>46051.3796875</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28712,7 +28712,7 @@
         <v>44966.42866898148</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28769,7 +28769,7 @@
         <v>44595</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28826,7 +28826,7 @@
         <v>45097</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28883,7 +28883,7 @@
         <v>46008.5600462963</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28940,7 +28940,7 @@
         <v>46009.49219907408</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28997,7 +28997,7 @@
         <v>46008.56133101852</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29054,7 +29054,7 @@
         <v>46049.89885416667</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29111,7 +29111,7 @@
         <v>46052.37725694444</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29168,7 +29168,7 @@
         <v>46010</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29225,7 +29225,7 @@
         <v>44855</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29287,7 +29287,7 @@
         <v>45685</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29344,7 +29344,7 @@
         <v>45575.41082175926</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29401,7 +29401,7 @@
         <v>46013</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29458,7 +29458,7 @@
         <v>45044</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29515,7 +29515,7 @@
         <v>44955.57755787037</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29572,7 +29572,7 @@
         <v>44939</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29629,7 +29629,7 @@
         <v>46054.85021990741</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29686,7 +29686,7 @@
         <v>46054.86001157408</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29743,7 +29743,7 @@
         <v>46055.58444444444</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29800,7 +29800,7 @@
         <v>45470.70572916666</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29857,7 +29857,7 @@
         <v>45125.51887731482</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29914,7 +29914,7 @@
         <v>45338</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
         <v>45460.56112268518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30028,7 +30028,7 @@
         <v>45387.4628125</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30085,7 +30085,7 @@
         <v>45387.46427083333</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30142,7 +30142,7 @@
         <v>45476.32041666667</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
         <v>44351</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30256,7 +30256,7 @@
         <v>44882.86710648148</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
         <v>45624.68168981482</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>45534.33277777778</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30427,7 +30427,7 @@
         <v>44959.58509259259</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30484,7 +30484,7 @@
         <v>45063</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30546,7 +30546,7 @@
         <v>44544.66945601852</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30603,7 +30603,7 @@
         <v>44949</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30660,7 +30660,7 @@
         <v>44847.61641203704</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
         <v>44543.6294212963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30774,7 +30774,7 @@
         <v>45202</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30831,7 +30831,7 @@
         <v>45050</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30888,7 +30888,7 @@
         <v>45308.36451388889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30945,7 +30945,7 @@
         <v>44993</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31002,7 +31002,7 @@
         <v>45558.64021990741</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31059,7 +31059,7 @@
         <v>44782.66065972222</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31116,7 +31116,7 @@
         <v>45628.6009837963</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31173,7 +31173,7 @@
         <v>45363.41396990741</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31250,7 +31250,7 @@
         <v>45075</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31307,7 +31307,7 @@
         <v>45083</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31364,7 +31364,7 @@
         <v>45114</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31421,7 +31421,7 @@
         <v>44236</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31478,7 +31478,7 @@
         <v>44236</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31535,7 +31535,7 @@
         <v>45173.65185185185</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31592,7 +31592,7 @@
         <v>45387.46362268519</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31649,7 +31649,7 @@
         <v>45387.46494212963</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31706,7 +31706,7 @@
         <v>44564.33684027778</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31763,7 +31763,7 @@
         <v>45149.36645833333</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31820,7 +31820,7 @@
         <v>45149.36741898148</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31877,7 +31877,7 @@
         <v>45141</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31934,7 +31934,7 @@
         <v>44971.65065972223</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31991,7 +31991,7 @@
         <v>45205.50341435185</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32048,7 +32048,7 @@
         <v>45524.55950231481</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32105,7 +32105,7 @@
         <v>45099.64581018518</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32162,7 +32162,7 @@
         <v>45212</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32219,7 +32219,7 @@
         <v>44679.61922453704</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32276,7 +32276,7 @@
         <v>45607</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32333,7 +32333,7 @@
         <v>45755.82037037037</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32390,7 +32390,7 @@
         <v>45233.44423611111</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32447,7 +32447,7 @@
         <v>45540.46863425926</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32504,7 +32504,7 @@
         <v>45719.50435185185</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32566,7 +32566,7 @@
         <v>45169.40732638889</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32623,7 +32623,7 @@
         <v>44482</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32680,7 +32680,7 @@
         <v>45246</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32737,7 +32737,7 @@
         <v>45118</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32794,7 +32794,7 @@
         <v>44656.3625925926</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32851,7 +32851,7 @@
         <v>44690.35951388889</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32908,7 +32908,7 @@
         <v>44819</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32965,7 +32965,7 @@
         <v>44952.55995370371</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33022,7 +33022,7 @@
         <v>45323.39799768518</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33079,7 +33079,7 @@
         <v>45092.66958333334</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33136,7 +33136,7 @@
         <v>45086</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33193,7 +33193,7 @@
         <v>44895</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33250,7 +33250,7 @@
         <v>45156.64706018518</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33307,7 +33307,7 @@
         <v>45314</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33364,7 +33364,7 @@
         <v>45771</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33421,7 +33421,7 @@
         <v>45034.50958333333</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33478,7 +33478,7 @@
         <v>45254.37960648148</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33535,7 +33535,7 @@
         <v>45174.29445601852</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33592,7 +33592,7 @@
         <v>45363.43923611111</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33649,7 +33649,7 @@
         <v>44818.36990740741</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33706,7 +33706,7 @@
         <v>45531.56496527778</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33763,7 +33763,7 @@
         <v>45324.24875</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33820,7 +33820,7 @@
         <v>45454.57378472222</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33877,7 +33877,7 @@
         <v>45703.68050925926</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33934,7 +33934,7 @@
         <v>44271</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33991,7 +33991,7 @@
         <v>44271</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34048,7 +34048,7 @@
         <v>44564.34321759259</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34105,7 +34105,7 @@
         <v>45209.56659722222</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34162,7 +34162,7 @@
         <v>45209.57653935185</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34219,7 +34219,7 @@
         <v>45684</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34276,7 +34276,7 @@
         <v>45091</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34333,7 +34333,7 @@
         <v>45771</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34390,7 +34390,7 @@
         <v>45260</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34447,7 +34447,7 @@
         <v>44342.63006944444</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34504,7 +34504,7 @@
         <v>44978.45912037037</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34561,7 +34561,7 @@
         <v>45273.86098379629</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>45758.43954861111</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34680,7 +34680,7 @@
         <v>45334.4872800926</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34737,7 +34737,7 @@
         <v>45623.68888888889</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34794,7 +34794,7 @@
         <v>45189</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34851,7 +34851,7 @@
         <v>45356.37644675926</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34908,7 +34908,7 @@
         <v>44931.35797453704</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         <v>45027</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35022,7 +35022,7 @@
         <v>45090</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35079,7 +35079,7 @@
         <v>44413</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35136,7 +35136,7 @@
         <v>45067</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>44823.49798611111</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35250,7 +35250,7 @@
         <v>44823.51177083333</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35307,7 +35307,7 @@
         <v>44732.58428240741</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35364,7 +35364,7 @@
         <v>44963</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35421,7 +35421,7 @@
         <v>44963.84150462963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35478,7 +35478,7 @@
         <v>45341.65902777778</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35535,7 +35535,7 @@
         <v>45336</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35592,7 +35592,7 @@
         <v>45618.44755787037</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35649,7 +35649,7 @@
         <v>45540.47875</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35706,7 +35706,7 @@
         <v>45076</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35768,7 +35768,7 @@
         <v>45624.46776620371</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35830,7 +35830,7 @@
         <v>45156</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
         <v>44336</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35944,7 +35944,7 @@
         <v>44824.33912037037</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -36001,7 +36001,7 @@
         <v>45338.63932870371</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -36058,7 +36058,7 @@
         <v>45001</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -36115,7 +36115,7 @@
         <v>44658.9643287037</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36172,7 +36172,7 @@
         <v>45719.49442129629</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36234,7 +36234,7 @@
         <v>45719.49711805556</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36296,7 +36296,7 @@
         <v>45727.44655092592</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36353,7 +36353,7 @@
         <v>45114</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36410,7 +36410,7 @@
         <v>45755.44684027778</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36467,7 +36467,7 @@
         <v>45582.40756944445</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36524,7 +36524,7 @@
         <v>45236.51583333333</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36581,7 +36581,7 @@
         <v>45229.44927083333</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36638,7 +36638,7 @@
         <v>44924</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36695,7 +36695,7 @@
         <v>45119</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36752,7 +36752,7 @@
         <v>44858</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36809,7 +36809,7 @@
         <v>45181.53854166667</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36866,7 +36866,7 @@
         <v>45775.89869212963</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>45558.55011574074</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36985,7 +36985,7 @@
         <v>45439.49431712963</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -37042,7 +37042,7 @@
         <v>45443.49804398148</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -37099,7 +37099,7 @@
         <v>45551.45412037037</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37156,7 +37156,7 @@
         <v>45246</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37213,7 +37213,7 @@
         <v>45782.59019675926</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37275,7 +37275,7 @@
         <v>45782.56037037037</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37352,7 +37352,7 @@
         <v>45782.59994212963</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37414,7 +37414,7 @@
         <v>45785.59967592593</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37471,7 +37471,7 @@
         <v>45664.58763888889</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37528,7 +37528,7 @@
         <v>45664.40896990741</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37585,7 +37585,7 @@
         <v>45786.35510416667</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37642,7 +37642,7 @@
         <v>45566.42055555555</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37699,7 +37699,7 @@
         <v>45454.56966435185</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37756,7 +37756,7 @@
         <v>45730.39450231481</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37813,7 +37813,7 @@
         <v>45363.44701388889</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37870,7 +37870,7 @@
         <v>45791.44459490741</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37927,7 +37927,7 @@
         <v>45792.5966550926</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37989,7 +37989,7 @@
         <v>45792.58431712963</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -38051,7 +38051,7 @@
         <v>45792.56350694445</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -38113,7 +38113,7 @@
         <v>45797.43725694445</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>

--- a/Översikt KALMAR.xlsx
+++ b/Översikt KALMAR.xlsx
@@ -575,7 +575,7 @@
         <v>44439</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
         <v>44979</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         <v>44489</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,7 +862,7 @@
         <v>44476</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         <v>44454</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         <v>45842.47034722222</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         <v>45324</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         <v>45664.60489583333</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1350,7 +1350,7 @@
         <v>45947.50652777778</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>45561</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1547,7 +1547,7 @@
         <v>45952.63803240741</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>44951</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         <v>44876</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1827,7 +1827,7 @@
         <v>44827</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         <v>44575</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2010,7 +2010,7 @@
         <v>44785</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2102,7 +2102,7 @@
         <v>45118</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         <v>45254</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>44489</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2367,7 +2367,7 @@
         <v>44853</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2458,7 +2458,7 @@
         <v>45791.4415625</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2545,7 +2545,7 @@
         <v>44785</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         <v>45575.39890046296</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2726,7 +2726,7 @@
         <v>44802</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         <v>45832.47028935186</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
         <v>45924.5352662037</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2989,7 +2989,7 @@
         <v>45874.5900462963</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         <v>45874.58605324074</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3165,7 +3165,7 @@
         <v>45943</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3259,7 +3259,7 @@
         <v>44302.41612268519</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>45044</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44951</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3517,7 +3517,7 @@
         <v>45114</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3603,7 +3603,7 @@
         <v>46054.85332175926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3693,7 +3693,7 @@
         <v>45105</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
         <v>45915.59765046297</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3869,7 +3869,7 @@
         <v>45703.67907407408</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         <v>44378.55797453703</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4040,7 +4040,7 @@
         <v>44489</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4129,7 +4129,7 @@
         <v>44279</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>44784</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         <v>44740</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>44466</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44575.43100694445</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4562,7 +4562,7 @@
         <v>45475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4647,7 +4647,7 @@
         <v>44260</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>45167</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45243</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>45007</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4987,7 +4987,7 @@
         <v>45856.41157407407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         <v>45719.50027777778</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5167,7 +5167,7 @@
         <v>45868.60506944444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5252,7 +5252,7 @@
         <v>44915</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5337,7 +5337,7 @@
         <v>45882</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5422,7 +5422,7 @@
         <v>44991.50229166666</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5507,7 +5507,7 @@
         <v>45966.82825231482</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5592,7 +5592,7 @@
         <v>44482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5681,7 +5681,7 @@
         <v>45117</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         <v>46049</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5855,7 +5855,7 @@
         <v>44517.4756712963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45275</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6034,7 +6034,7 @@
         <v>44931</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6119,7 +6119,7 @@
         <v>45007</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6208,7 +6208,7 @@
         <v>45775.89171296296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6293,7 +6293,7 @@
         <v>45544.57532407407</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6382,7 +6382,7 @@
         <v>45799.45077546296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         <v>45684</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6552,7 +6552,7 @@
         <v>45574.59858796297</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44629</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44421</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44823</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44643</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44285</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44460.55954861111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44264</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44497.4675462963</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44505.47354166667</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44327</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44475</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7274,7 +7274,7 @@
         <v>44273</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44684</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44312</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44456</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44435</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44457</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44539.35644675926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44407.35048611111</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44498</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7844,7 +7844,7 @@
         <v>44498</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
         <v>44489</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7958,7 +7958,7 @@
         <v>44382</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>44790</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8072,7 +8072,7 @@
         <v>44525.32100694445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>44273.86541666667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>44823</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>44531</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>44517.67465277778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44364.74199074074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8414,7 +8414,7 @@
         <v>44602</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8471,7 +8471,7 @@
         <v>44623.42868055555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44417</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8585,7 +8585,7 @@
         <v>44858.57224537037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8642,7 +8642,7 @@
         <v>44419</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8699,7 +8699,7 @@
         <v>44264</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8756,7 +8756,7 @@
         <v>44522</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8813,7 +8813,7 @@
         <v>44823.44712962963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8870,7 +8870,7 @@
         <v>44818</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8927,7 +8927,7 @@
         <v>44852.45520833333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>44858.5893287037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>44858.68984953704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>44858.69229166667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>44615</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>44432</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44302</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44271.41609953704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44586</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44287</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>44348.69079861111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>44447</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>44267</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>44454</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9725,7 +9725,7 @@
         <v>44502</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9782,7 +9782,7 @@
         <v>44552.58133101852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9839,7 +9839,7 @@
         <v>44482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9896,7 +9896,7 @@
         <v>44357</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9953,7 +9953,7 @@
         <v>44377.95908564814</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10010,7 +10010,7 @@
         <v>44301.35189814815</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10067,7 +10067,7 @@
         <v>44574</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10124,7 +10124,7 @@
         <v>44620</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10181,7 +10181,7 @@
         <v>44351</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10238,7 +10238,7 @@
         <v>44302</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10295,7 +10295,7 @@
         <v>44341.4290625</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10352,7 +10352,7 @@
         <v>44625</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10409,7 +10409,7 @@
         <v>44461.44216435185</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10466,7 +10466,7 @@
         <v>44312.38436342592</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10523,7 +10523,7 @@
         <v>44455.55739583333</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10580,7 +10580,7 @@
         <v>44784</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10637,7 +10637,7 @@
         <v>44433.50366898148</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10694,7 +10694,7 @@
         <v>44369</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10751,7 +10751,7 @@
         <v>44654.98487268519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10808,7 +10808,7 @@
         <v>44855.31458333333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10865,7 +10865,7 @@
         <v>44326.60537037037</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10922,7 +10922,7 @@
         <v>44858.58140046296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10979,7 +10979,7 @@
         <v>44437.35085648148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11036,7 +11036,7 @@
         <v>44732</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11093,7 +11093,7 @@
         <v>44810</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11150,7 +11150,7 @@
         <v>44386</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11207,7 +11207,7 @@
         <v>44385</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11264,7 +11264,7 @@
         <v>44454</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11321,7 +11321,7 @@
         <v>44448</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11378,7 +11378,7 @@
         <v>44461.4503587963</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11435,7 +11435,7 @@
         <v>44326.34189814814</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11492,7 +11492,7 @@
         <v>44858.57855324074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11549,7 +11549,7 @@
         <v>44385</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11606,7 +11606,7 @@
         <v>44511</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11663,7 +11663,7 @@
         <v>45411.45290509259</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11720,7 +11720,7 @@
         <v>44477.44094907407</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
         <v>44595</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11834,7 +11834,7 @@
         <v>44970</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11891,7 +11891,7 @@
         <v>45617.52459490741</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11948,7 +11948,7 @@
         <v>44988</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12005,7 +12005,7 @@
         <v>45205.48995370371</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12062,7 +12062,7 @@
         <v>45090</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12119,7 +12119,7 @@
         <v>45090</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12176,7 +12176,7 @@
         <v>45090.42700231481</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12233,7 +12233,7 @@
         <v>45161.57517361111</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12290,7 +12290,7 @@
         <v>44924</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12347,7 +12347,7 @@
         <v>45097</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12404,7 +12404,7 @@
         <v>45735.29974537037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44895.64876157408</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>45034.48248842593</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12575,7 +12575,7 @@
         <v>45272</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12632,7 +12632,7 @@
         <v>44438</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12689,7 +12689,7 @@
         <v>45307.70986111111</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12746,7 +12746,7 @@
         <v>45623.69091435185</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12803,7 +12803,7 @@
         <v>44502</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12860,7 +12860,7 @@
         <v>45618.44626157408</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
         <v>44846</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12974,7 +12974,7 @@
         <v>45573.74909722222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13031,7 +13031,7 @@
         <v>44993.50293981482</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13088,7 +13088,7 @@
         <v>44993.63946759259</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13145,7 +13145,7 @@
         <v>45099.63752314815</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>45195</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>45349.67702546297</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13316,7 +13316,7 @@
         <v>44855.62880787037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13373,7 +13373,7 @@
         <v>45233.45891203704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44924</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44861</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13544,7 +13544,7 @@
         <v>44864</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13601,7 +13601,7 @@
         <v>44991.5237037037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13658,7 +13658,7 @@
         <v>45153.41537037037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>45173.64986111111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>45173.65681712963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>44712.36024305555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>44280.38127314814</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13943,7 +13943,7 @@
         <v>45250.63819444444</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14000,7 +14000,7 @@
         <v>45264</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14077,7 +14077,7 @@
         <v>45741.65971064815</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14134,7 +14134,7 @@
         <v>45219.3707175926</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>45219.37208333334</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44993.51064814815</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>45189</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>45272</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44782.6562037037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>45028</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14533,7 +14533,7 @@
         <v>45400.36533564814</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14590,7 +14590,7 @@
         <v>45058.34835648148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14647,7 +14647,7 @@
         <v>45239</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14709,7 +14709,7 @@
         <v>45771</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14766,7 +14766,7 @@
         <v>44405</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14823,7 +14823,7 @@
         <v>45720.54586805555</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14880,7 +14880,7 @@
         <v>45719.48662037037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14942,7 +14942,7 @@
         <v>45719.50247685185</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15004,7 +15004,7 @@
         <v>45182.6869212963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15061,7 +15061,7 @@
         <v>45488.65181712963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15118,7 +15118,7 @@
         <v>45688.48016203703</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15175,7 +15175,7 @@
         <v>44994.74642361111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15232,7 +15232,7 @@
         <v>45163</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15309,7 +15309,7 @@
         <v>45630.3630787037</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15366,7 +15366,7 @@
         <v>45110.53196759259</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15428,7 +15428,7 @@
         <v>45104</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15490,7 +15490,7 @@
         <v>45796.42703703704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15547,7 +15547,7 @@
         <v>45804.49474537037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15604,7 +15604,7 @@
         <v>45636.32344907407</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15661,7 +15661,7 @@
         <v>45783.42328703704</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15718,7 +15718,7 @@
         <v>45741.47291666667</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15775,7 +15775,7 @@
         <v>45104.61489583334</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15832,7 +15832,7 @@
         <v>45104</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15889,7 +15889,7 @@
         <v>45820.41298611111</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15951,7 +15951,7 @@
         <v>45820.41796296297</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>45341.6575</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44529</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16127,7 +16127,7 @@
         <v>45335</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>45825.53065972222</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16246,7 +16246,7 @@
         <v>45824.4099537037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16308,7 +16308,7 @@
         <v>45180.38313657408</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16365,7 +16365,7 @@
         <v>45796.42775462963</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16422,7 +16422,7 @@
         <v>45824.33850694444</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16479,7 +16479,7 @@
         <v>44971</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16536,7 +16536,7 @@
         <v>45061</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16593,7 +16593,7 @@
         <v>45890.66949074074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16650,7 +16650,7 @@
         <v>45890</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16707,7 +16707,7 @@
         <v>45086.58806712963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16764,7 +16764,7 @@
         <v>44617</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16821,7 +16821,7 @@
         <v>44617</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16878,7 +16878,7 @@
         <v>44984.48538194445</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16955,7 +16955,7 @@
         <v>44984.51159722222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17012,7 +17012,7 @@
         <v>45007</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17069,7 +17069,7 @@
         <v>45007.36232638889</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17126,7 +17126,7 @@
         <v>45007.36420138889</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17183,7 +17183,7 @@
         <v>45205.49322916667</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17240,7 +17240,7 @@
         <v>45903</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17297,7 +17297,7 @@
         <v>45901.85744212963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>45838.3153125</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>45180.66054398148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>45096.42900462963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>45838.42543981481</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>45838.30082175926</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17639,7 +17639,7 @@
         <v>45838.30962962963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17696,7 +17696,7 @@
         <v>45170</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17753,7 +17753,7 @@
         <v>45212</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17810,7 +17810,7 @@
         <v>45840.52256944445</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17867,7 +17867,7 @@
         <v>45910.7499537037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17924,7 +17924,7 @@
         <v>45091</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17981,7 +17981,7 @@
         <v>44984</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18038,7 +18038,7 @@
         <v>45842</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18095,7 +18095,7 @@
         <v>45842</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18152,7 +18152,7 @@
         <v>45912.70927083334</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18209,7 +18209,7 @@
         <v>45842.45819444444</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18266,7 +18266,7 @@
         <v>45912.7087962963</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18323,7 +18323,7 @@
         <v>45915.60172453704</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18380,7 +18380,7 @@
         <v>44645.55082175926</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18437,7 +18437,7 @@
         <v>45915.62736111111</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18494,7 +18494,7 @@
         <v>45915.59504629629</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18551,7 +18551,7 @@
         <v>45849.43452546297</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18608,7 +18608,7 @@
         <v>44973.35048611111</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18665,7 +18665,7 @@
         <v>45917.5968287037</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18722,7 +18722,7 @@
         <v>45917.65667824074</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18779,7 +18779,7 @@
         <v>44963</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18836,7 +18836,7 @@
         <v>45722.56913194444</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18898,7 +18898,7 @@
         <v>44438</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18955,7 +18955,7 @@
         <v>45856.43569444444</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19017,7 +19017,7 @@
         <v>45540.46302083333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19074,7 +19074,7 @@
         <v>44816.42498842593</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19131,7 +19131,7 @@
         <v>45923.42653935185</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19188,7 +19188,7 @@
         <v>45460.55929398148</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19245,7 +19245,7 @@
         <v>45861.37252314815</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19302,7 +19302,7 @@
         <v>45923.38517361111</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19359,7 +19359,7 @@
         <v>45863.39814814815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19416,7 +19416,7 @@
         <v>45923.75641203704</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19473,7 +19473,7 @@
         <v>45924.53162037037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19530,7 +19530,7 @@
         <v>44914.32637731481</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19587,7 +19587,7 @@
         <v>45831.97577546296</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19644,7 +19644,7 @@
         <v>44994</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19701,7 +19701,7 @@
         <v>44994</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19758,7 +19758,7 @@
         <v>45866.74208333333</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19815,7 +19815,7 @@
         <v>45764</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
         <v>45544</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         <v>45779.64450231481</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19991,7 +19991,7 @@
         <v>45929.64453703703</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20048,7 +20048,7 @@
         <v>45173</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20105,7 +20105,7 @@
         <v>45104.62357638889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>45113</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20219,7 +20219,7 @@
         <v>45091</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20276,7 +20276,7 @@
         <v>45167</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20333,7 +20333,7 @@
         <v>45233.47571759259</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20390,7 +20390,7 @@
         <v>45252.61453703704</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20447,7 +20447,7 @@
         <v>45874.58261574074</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20504,7 +20504,7 @@
         <v>45930.62087962963</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20561,7 +20561,7 @@
         <v>45544.57149305556</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20618,7 +20618,7 @@
         <v>45874.43913194445</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>45406</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20732,7 +20732,7 @@
         <v>45564.47452546296</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20789,7 +20789,7 @@
         <v>45267.64923611111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>45932.4553125</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20903,7 +20903,7 @@
         <v>44502</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20960,7 +20960,7 @@
         <v>45785.36744212963</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21017,7 +21017,7 @@
         <v>45104.61077546296</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21074,7 +21074,7 @@
         <v>45198</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21131,7 +21131,7 @@
         <v>45883.50762731482</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21188,7 +21188,7 @@
         <v>45567</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21250,7 +21250,7 @@
         <v>45243</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21307,7 +21307,7 @@
         <v>45707.76028935185</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21364,7 +21364,7 @@
         <v>45707.76736111111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21421,7 +21421,7 @@
         <v>45939.38967592592</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>44846.5583449074</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>44914.45517361111</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>45939.39587962963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>44522</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21706,7 +21706,7 @@
         <v>45548.55480324074</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21763,7 +21763,7 @@
         <v>44277</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21820,7 +21820,7 @@
         <v>45070</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21882,7 +21882,7 @@
         <v>45688.49143518518</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21939,7 +21939,7 @@
         <v>44909.39930555555</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21996,7 +21996,7 @@
         <v>45215.52277777778</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22053,7 +22053,7 @@
         <v>44529</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22110,7 +22110,7 @@
         <v>45789.81270833333</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22167,7 +22167,7 @@
         <v>45492.44469907408</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22224,7 +22224,7 @@
         <v>44872.77071759259</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22281,7 +22281,7 @@
         <v>45246</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22338,7 +22338,7 @@
         <v>45947.56736111111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22395,7 +22395,7 @@
         <v>45947.56983796296</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22452,7 +22452,7 @@
         <v>45947.56894675926</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22509,7 +22509,7 @@
         <v>45947.48684027778</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22566,7 +22566,7 @@
         <v>45286.66233796296</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22623,7 +22623,7 @@
         <v>45946.69854166666</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22680,7 +22680,7 @@
         <v>44418.68163194445</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22737,7 +22737,7 @@
         <v>44796</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22794,7 +22794,7 @@
         <v>44581.86262731482</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22851,7 +22851,7 @@
         <v>45268.50543981481</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22908,7 +22908,7 @@
         <v>45229.71185185185</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -22965,7 +22965,7 @@
         <v>45722.85125</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23022,7 +23022,7 @@
         <v>45952.44096064815</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23079,7 +23079,7 @@
         <v>45595.70145833334</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23136,7 +23136,7 @@
         <v>45628.58701388889</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23193,7 +23193,7 @@
         <v>45252</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23250,7 +23250,7 @@
         <v>45952.63920138889</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23307,7 +23307,7 @@
         <v>45952.5759837963</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23364,7 +23364,7 @@
         <v>45233.461875</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23421,7 +23421,7 @@
         <v>44566</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23478,7 +23478,7 @@
         <v>44375</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23535,7 +23535,7 @@
         <v>45418.46353009259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23592,7 +23592,7 @@
         <v>45716.26175925926</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23649,7 +23649,7 @@
         <v>45345.38601851852</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23706,7 +23706,7 @@
         <v>45958.35711805556</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23763,7 +23763,7 @@
         <v>45706.35223379629</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23820,7 +23820,7 @@
         <v>45028.61766203704</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23877,7 +23877,7 @@
         <v>45713.33792824074</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -23934,7 +23934,7 @@
         <v>45961.3479050926</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -23991,7 +23991,7 @@
         <v>45961.57341435185</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24048,7 +24048,7 @@
         <v>45772</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24105,7 +24105,7 @@
         <v>45772</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24162,7 +24162,7 @@
         <v>44497</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24219,7 +24219,7 @@
         <v>45618.44939814815</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24276,7 +24276,7 @@
         <v>45695.66608796296</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24333,7 +24333,7 @@
         <v>45006.5191087963</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24390,7 +24390,7 @@
         <v>44810</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24447,7 +24447,7 @@
         <v>45966.71322916666</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24504,7 +24504,7 @@
         <v>45229</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24561,7 +24561,7 @@
         <v>44971.53328703704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24618,7 +24618,7 @@
         <v>45093</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24675,7 +24675,7 @@
         <v>44407.34855324074</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24732,7 +24732,7 @@
         <v>45972.31782407407</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24789,7 +24789,7 @@
         <v>45153</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24846,7 +24846,7 @@
         <v>45771.4483912037</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24903,7 +24903,7 @@
         <v>45930</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -24960,7 +24960,7 @@
         <v>44915.61998842593</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25017,7 +25017,7 @@
         <v>44914.51458333333</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25074,7 +25074,7 @@
         <v>44895.65763888889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>45551.46702546296</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25188,7 +25188,7 @@
         <v>45978.7303587963</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25245,7 +25245,7 @@
         <v>45327.50098379629</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25302,7 +25302,7 @@
         <v>44939.49839120371</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25359,7 +25359,7 @@
         <v>45069</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25416,7 +25416,7 @@
         <v>45246.60998842592</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25473,7 +25473,7 @@
         <v>45246.61422453704</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25530,7 +25530,7 @@
         <v>44973.36293981481</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25587,7 +25587,7 @@
         <v>45378.46670138889</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25644,7 +25644,7 @@
         <v>45982.30153935185</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25701,7 +25701,7 @@
         <v>45190.33980324074</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25758,7 +25758,7 @@
         <v>45175</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25815,7 +25815,7 @@
         <v>45173.50910879629</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25872,7 +25872,7 @@
         <v>44831</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -25934,7 +25934,7 @@
         <v>45306</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -25991,7 +25991,7 @@
         <v>45091</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
         <v>44629</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>45741.64989583333</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26162,7 +26162,7 @@
         <v>45992.88173611111</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26219,7 +26219,7 @@
         <v>46036.46270833333</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26276,7 +26276,7 @@
         <v>45994.71613425926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26333,7 +26333,7 @@
         <v>45624.46452546296</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26395,7 +26395,7 @@
         <v>44862</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26452,7 +26452,7 @@
         <v>45856.43655092592</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26514,7 +26514,7 @@
         <v>44979</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26571,7 +26571,7 @@
         <v>45574.62284722222</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26633,7 +26633,7 @@
         <v>45097</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26690,7 +26690,7 @@
         <v>46036.59960648148</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26747,7 +26747,7 @@
         <v>46037.67871527778</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26804,7 +26804,7 @@
         <v>44539.50920138889</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -26861,7 +26861,7 @@
         <v>45154.50664351852</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -26918,7 +26918,7 @@
         <v>45182</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -26975,7 +26975,7 @@
         <v>44909</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27032,7 +27032,7 @@
         <v>44988.67706018518</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27089,7 +27089,7 @@
         <v>45624.47252314815</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27151,7 +27151,7 @@
         <v>45266.65703703704</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27208,7 +27208,7 @@
         <v>45625</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27265,7 +27265,7 @@
         <v>45629.79351851852</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27322,7 +27322,7 @@
         <v>45646</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27379,7 +27379,7 @@
         <v>45188.38238425926</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27436,7 +27436,7 @@
         <v>44803.59166666667</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27493,7 +27493,7 @@
         <v>45402</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27555,7 +27555,7 @@
         <v>45680.68400462963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27612,7 +27612,7 @@
         <v>46003.58643518519</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27669,7 +27669,7 @@
         <v>45764.43362268519</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27726,7 +27726,7 @@
         <v>46048.39497685185</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27783,7 +27783,7 @@
         <v>44966.42866898148</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27840,7 +27840,7 @@
         <v>44595</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -27897,7 +27897,7 @@
         <v>45097</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27954,7 +27954,7 @@
         <v>46051.3796875</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28011,7 +28011,7 @@
         <v>44855</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28073,7 +28073,7 @@
         <v>45685</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28130,7 +28130,7 @@
         <v>45575.41082175926</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28187,7 +28187,7 @@
         <v>45044</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28244,7 +28244,7 @@
         <v>44955.57755787037</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28301,7 +28301,7 @@
         <v>44939</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28358,7 +28358,7 @@
         <v>45470.70572916666</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28415,7 +28415,7 @@
         <v>46008.5600462963</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28472,7 +28472,7 @@
         <v>46009.49219907408</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28529,7 +28529,7 @@
         <v>46008.56133101852</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28586,7 +28586,7 @@
         <v>46049.89885416667</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>46052.37725694444</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>46010</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125.51887731482</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28814,7 +28814,7 @@
         <v>46013</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -28871,7 +28871,7 @@
         <v>45338</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -28928,7 +28928,7 @@
         <v>46054.85021990741</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28985,7 +28985,7 @@
         <v>46054.86001157408</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29042,7 +29042,7 @@
         <v>46055.58444444444</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29099,7 +29099,7 @@
         <v>45460.56112268518</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29156,7 +29156,7 @@
         <v>45387.4628125</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29213,7 +29213,7 @@
         <v>45387.46427083333</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29270,7 +29270,7 @@
         <v>45476.32041666667</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29327,7 +29327,7 @@
         <v>44351</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29384,7 +29384,7 @@
         <v>44882.86710648148</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29441,7 +29441,7 @@
         <v>45624.68168981482</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29498,7 +29498,7 @@
         <v>45534.33277777778</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29555,7 +29555,7 @@
         <v>44959.58509259259</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29612,7 +29612,7 @@
         <v>45063</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29674,7 +29674,7 @@
         <v>44544.66945601852</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29731,7 +29731,7 @@
         <v>44949</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29788,7 +29788,7 @@
         <v>44847.61641203704</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -29845,7 +29845,7 @@
         <v>44543.6294212963</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29902,7 +29902,7 @@
         <v>46062.48211805556</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29959,7 +29959,7 @@
         <v>45202</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30016,7 +30016,7 @@
         <v>45050</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30073,7 +30073,7 @@
         <v>46063.40171296296</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30130,7 +30130,7 @@
         <v>45308.36451388889</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30187,7 +30187,7 @@
         <v>44993</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30244,7 +30244,7 @@
         <v>46063.34598379629</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30301,7 +30301,7 @@
         <v>46063.4053587963</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30358,7 +30358,7 @@
         <v>46063.84894675926</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30415,7 +30415,7 @@
         <v>46063.87349537037</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30472,7 +30472,7 @@
         <v>45558.64021990741</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30529,7 +30529,7 @@
         <v>44782.66065972222</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30586,7 +30586,7 @@
         <v>45628.6009837963</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30643,7 +30643,7 @@
         <v>45363.41396990741</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30720,7 +30720,7 @@
         <v>45075</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30777,7 +30777,7 @@
         <v>45083</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -30834,7 +30834,7 @@
         <v>46066.86133101852</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -30891,7 +30891,7 @@
         <v>45114</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -30948,7 +30948,7 @@
         <v>45173.65185185185</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31005,7 +31005,7 @@
         <v>46026.66100694444</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31062,7 +31062,7 @@
         <v>45387.46362268519</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31119,7 +31119,7 @@
         <v>45387.46494212963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31176,7 +31176,7 @@
         <v>46070.42793981481</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31233,7 +31233,7 @@
         <v>46070.36828703704</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31290,7 +31290,7 @@
         <v>44564.33684027778</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31347,7 +31347,7 @@
         <v>46070.79570601852</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31404,7 +31404,7 @@
         <v>46070.7925925926</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31461,7 +31461,7 @@
         <v>46070.79982638889</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31518,7 +31518,7 @@
         <v>46070.80329861111</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31575,7 +31575,7 @@
         <v>45149.36645833333</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31632,7 +31632,7 @@
         <v>45149.36741898148</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31689,7 +31689,7 @@
         <v>46072.39888888889</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31746,7 +31746,7 @@
         <v>45141</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -31803,7 +31803,7 @@
         <v>44971.65065972223</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -31860,7 +31860,7 @@
         <v>46073.55142361111</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -31917,7 +31917,7 @@
         <v>45205.50341435185</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -31974,7 +31974,7 @@
         <v>45524.55950231481</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32031,7 +32031,7 @@
         <v>45099.64581018518</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32088,7 +32088,7 @@
         <v>45212</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32145,7 +32145,7 @@
         <v>44679.61922453704</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32202,7 +32202,7 @@
         <v>45607</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45755.82037037037</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32316,7 +32316,7 @@
         <v>45233.44423611111</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32373,7 +32373,7 @@
         <v>45540.46863425926</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32430,7 +32430,7 @@
         <v>45719.50435185185</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32492,7 +32492,7 @@
         <v>45169.40732638889</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32549,7 +32549,7 @@
         <v>44482</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32606,7 +32606,7 @@
         <v>45246</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32663,7 +32663,7 @@
         <v>45118</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32720,7 +32720,7 @@
         <v>44656.3625925926</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32777,7 +32777,7 @@
         <v>44690.35951388889</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -32834,7 +32834,7 @@
         <v>44819</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -32891,7 +32891,7 @@
         <v>44952.55995370371</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -32948,7 +32948,7 @@
         <v>45323.39799768518</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33005,7 +33005,7 @@
         <v>45092.66958333334</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33062,7 +33062,7 @@
         <v>45086</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33119,7 +33119,7 @@
         <v>44895</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33176,7 +33176,7 @@
         <v>45156.64706018518</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33233,7 +33233,7 @@
         <v>45314</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33290,7 +33290,7 @@
         <v>45771</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33347,7 +33347,7 @@
         <v>45034.50958333333</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33404,7 +33404,7 @@
         <v>45254.37960648148</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33461,7 +33461,7 @@
         <v>45174.29445601852</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33518,7 +33518,7 @@
         <v>45363.43923611111</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33575,7 +33575,7 @@
         <v>44818.36990740741</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33632,7 +33632,7 @@
         <v>45531.56496527778</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33689,7 +33689,7 @@
         <v>45324.24875</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33746,7 +33746,7 @@
         <v>45454.57378472222</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -33803,7 +33803,7 @@
         <v>45703.68050925926</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -33860,7 +33860,7 @@
         <v>44271</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -33917,7 +33917,7 @@
         <v>44271</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -33974,7 +33974,7 @@
         <v>44564.34321759259</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34031,7 +34031,7 @@
         <v>45209.56659722222</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34088,7 +34088,7 @@
         <v>45209.57653935185</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34145,7 +34145,7 @@
         <v>45684</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34202,7 +34202,7 @@
         <v>45091</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
         <v>45771</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34316,7 +34316,7 @@
         <v>45260</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34373,7 +34373,7 @@
         <v>44342.63006944444</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34430,7 +34430,7 @@
         <v>44978.45912037037</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34487,7 +34487,7 @@
         <v>45273.86098379629</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34544,7 +34544,7 @@
         <v>45758.43954861111</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34606,7 +34606,7 @@
         <v>45334.4872800926</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34663,7 +34663,7 @@
         <v>45623.68888888889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34720,7 +34720,7 @@
         <v>45189</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -34777,7 +34777,7 @@
         <v>45356.37644675926</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -34834,7 +34834,7 @@
         <v>44931.35797453704</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -34891,7 +34891,7 @@
         <v>45027</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -34948,7 +34948,7 @@
         <v>45090</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35005,7 +35005,7 @@
         <v>44413</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35062,7 +35062,7 @@
         <v>45067</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35119,7 +35119,7 @@
         <v>44823.49798611111</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35176,7 +35176,7 @@
         <v>44823.51177083333</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -35233,7 +35233,7 @@
         <v>44732.58428240741</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -35290,7 +35290,7 @@
         <v>44963</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -35347,7 +35347,7 @@
         <v>44963.84150462963</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -35404,7 +35404,7 @@
         <v>45341.65902777778</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -35461,7 +35461,7 @@
         <v>45336</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -35518,7 +35518,7 @@
         <v>45618.44755787037</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -35575,7 +35575,7 @@
         <v>45540.47875</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -35632,7 +35632,7 @@
         <v>45076</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -35694,7 +35694,7 @@
         <v>45624.46776620371</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -35756,7 +35756,7 @@
         <v>45156</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -35813,7 +35813,7 @@
         <v>44336</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -35870,7 +35870,7 @@
         <v>44824.33912037037</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -35927,7 +35927,7 @@
         <v>45338.63932870371</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -35984,7 +35984,7 @@
         <v>45001</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -36041,7 +36041,7 @@
         <v>44658.9643287037</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -36098,7 +36098,7 @@
         <v>45719.49442129629</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -36160,7 +36160,7 @@
         <v>45719.49711805556</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -36222,7 +36222,7 @@
         <v>45727.44655092592</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -36279,7 +36279,7 @@
         <v>45114</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -36336,7 +36336,7 @@
         <v>45755.44684027778</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -36393,7 +36393,7 @@
         <v>45582.40756944445</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -36450,7 +36450,7 @@
         <v>45236.51583333333</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -36507,7 +36507,7 @@
         <v>45229.44927083333</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -36564,7 +36564,7 @@
         <v>44924</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -36621,7 +36621,7 @@
         <v>45119</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -36678,7 +36678,7 @@
         <v>44858</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -36735,7 +36735,7 @@
         <v>45181.53854166667</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -36792,7 +36792,7 @@
         <v>45775.89869212963</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -36849,7 +36849,7 @@
         <v>45558.55011574074</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -36911,7 +36911,7 @@
         <v>45439.49431712963</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -36968,7 +36968,7 @@
         <v>45443.49804398148</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -37025,7 +37025,7 @@
         <v>45551.45412037037</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -37082,7 +37082,7 @@
         <v>45246</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -37139,7 +37139,7 @@
         <v>45782.59019675926</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -37201,7 +37201,7 @@
         <v>45782.56037037037</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -37278,7 +37278,7 @@
         <v>45782.59994212963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -37340,7 +37340,7 @@
         <v>45785.59967592593</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -37397,7 +37397,7 @@
         <v>45664.58763888889</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -37454,7 +37454,7 @@
         <v>45664.40896990741</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -37511,7 +37511,7 @@
         <v>45786.35510416667</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -37568,7 +37568,7 @@
         <v>45566.42055555555</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -37625,7 +37625,7 @@
         <v>45454.56966435185</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -37682,7 +37682,7 @@
         <v>45730.39450231481</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -37739,7 +37739,7 @@
         <v>45363.44701388889</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -37796,7 +37796,7 @@
         <v>45791.44459490741</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -37853,7 +37853,7 @@
         <v>45792.5966550926</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -37915,7 +37915,7 @@
         <v>45792.58431712963</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -37977,7 +37977,7 @@
         <v>45792.56350694445</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -38039,7 +38039,7 @@
         <v>45797.43725694445</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -38096,7 +38096,7 @@
         <v>45720.50233796296</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -38153,7 +38153,7 @@
         <v>45805.66190972222</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -38210,7 +38210,7 @@
         <v>45812.4690162037</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
